--- a/Parametric/Param_9.xlsx
+++ b/Parametric/Param_9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Test: bpu_2 (Parameter = 9)</t>
   </si>
@@ -43,28 +43,47 @@
     <t xml:space="preserve">always_not_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/10 of all mispredictions =&gt; 10% of 90% is main loop mispredicts. Tested branch is for() with 9 stages and one of them is NT. =&gt; 1/10(of all predictions) is predicted and 8/10(of all predictions) is mispredicted. =&gt; 1/10 + 8/10 = 90%</t>
+  </si>
+  <si>
     <t xml:space="preserve">always_taken</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and it’s 1/10 of all mispredictions =&gt; 20% of 80% is main loop mispredicts. Tested branch is for() with 4 stages and one of them is NT. =&gt; 1/5(of all predictions) is predicted and 3/5(of all predictions) is mispredicted. =&gt; 3/5 + 1/5 = 80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">backward_jumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken backward jump(unconditional) and it’s 1/10 of all predictions =&gt; 10% is right. Tested branch is for() with backward jump and it consists from 9 stages and one of them is NT. =&gt; 8/9 is predicted and 1/10 is mispredicted. 1/10 = 10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_one_bit</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/10 predictions is right. Tested branch is jump from for() and has 9 stages: T, T, T, T, T, T, T, T, NT =&gt; NT → T → T→ T→ T → T→ T→ T →  NT… We have 7 right predicts and 2 fails(T when NT and after this NT when T). =&gt; only 2/10 is mispredicted  and other 6/10 is right predicted. =&gt; 2/10 = 20%</t>
+  </si>
+  <si>
     <t xml:space="preserve">saturating_two_bits</t>
   </si>
   <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first time =&gt; 1/10 predictions is right. Tested branch is jump from for() and has 9 stages: T, T, T, T, T, T, T, T, NT =&gt; WNT → WT → ST→ ST→ ST→ ST→ST→ ST→ST → WT → ST → ST… We have 8 right predicts and 1 fail(ST when NT). =&gt; only 1/10 is mispredicted and other 8/10 is right predicted. =&gt; 1/10 = 10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">adaptive_two_levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main loop is always taken and predictor knows it after the first two times =&gt; 1/10 of all predictions is right(0 misses). Tested branch is for() with 9 conditions: 8 T and 1 NT =&gt; We have history 11111111011111111011…. And we use 2 last bit history. But pattern 11 has two different conditions after it – 11 → 1 and 11 → 0. 11 → 1 (6 times), 11 → 0(1 time), 10 → 1(1 time) and 01 → 1 (1 time) =&gt; 6 + 1 + 1 – right predictions and 11 → one miss =&gt; 1/10 = 10%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -136,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +173,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,8 +199,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,52 +245,88 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.899998</v>
+        <v>0.899997</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.100002</v>
+        <v>0.100003</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.100002</v>
+        <v>0.100003</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0.2</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.100002</v>
+        <v>0.100003</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.100011</v>
+        <v>0.100016</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
